--- a/Modelagem - PcClinics/Ecxel.xlsx
+++ b/Modelagem - PcClinics/Ecxel.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1726FD7-4540-4E9E-B81E-B2E75591372D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Clinica</t>
   </si>
@@ -166,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,15 +175,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -220,25 +237,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,363 +597,342 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
         <v>5</v>
       </c>
-      <c r="L4" s="1">
+      <c r="K4" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="1">
-        <v>2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F7" s="2">
+      <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
-      <c r="J7" s="1">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="6">
         <v>43811</v>
       </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="6">
         <v>43717</v>
       </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="5">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="6">
         <v>43631</v>
       </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <v>2</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+      <c r="B15" s="5">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="6">
         <v>43568</v>
       </c>
-      <c r="F15" s="1">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2" t="s">
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+      <c r="B16" s="5">
         <v>5</v>
       </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="6">
         <v>43689</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <v>4</v>
       </c>
-      <c r="I16" s="2">
+      <c r="H16" s="5">
         <v>4</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="G22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -907,106 +940,98 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>4</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="2">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="5">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="G25" s="5">
+        <v>3</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="G26" s="5">
         <v>4</v>
       </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2">
-        <v>4</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I11:J11"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
